--- a/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 10,01,24 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 10,01,24 днрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\10,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\10,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EDE792-3EF2-4658-BEDB-91EE07FA0151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C7BCDF-FD53-447C-993F-493FAF2FF2B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="144">
   <si>
     <t>Период: 03.01.2024 - 10.01.2024</t>
   </si>
@@ -986,7 +986,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1000,6 +999,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9527,8 +9527,8 @@
   <dimension ref="A1:AG105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V25" sqref="V25"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -9548,8 +9548,9 @@
     <col min="23" max="23" width="13.83203125" style="2" customWidth="1"/>
     <col min="24" max="25" width="5.5" style="2" customWidth="1"/>
     <col min="26" max="28" width="7.6640625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="20.1640625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="10.5" style="2"/>
+    <col min="29" max="29" width="13.6640625" style="2" customWidth="1"/>
+    <col min="30" max="33" width="7.6640625" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -9699,7 +9700,9 @@
       <c r="T4" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="44"/>
+      <c r="U4" s="53" t="s">
+        <v>143</v>
+      </c>
       <c r="V4" s="15" t="s">
         <v>126</v>
       </c>
@@ -9782,7 +9785,7 @@
         <f t="shared" si="1"/>
         <v>51962.423333333347</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="44">
         <f t="shared" ref="R5:U5" si="2">SUM(R6:R264)</f>
         <v>1300</v>
       </c>
@@ -9794,7 +9797,7 @@
         <f t="shared" si="2"/>
         <v>19276.020193798453</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="45">
         <f t="shared" si="2"/>
         <v>17949.368701550386</v>
       </c>
@@ -9879,14 +9882,14 @@
       <c r="Q6" s="36">
         <v>100</v>
       </c>
-      <c r="R6" s="48"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="25">
         <v>23.255813953488374</v>
       </c>
       <c r="T6" s="25">
         <v>38.372093023255815</v>
       </c>
-      <c r="U6" s="49">
+      <c r="U6" s="48">
         <f>Q6-S6-T6</f>
         <v>38.372093023255815</v>
       </c>
@@ -9971,14 +9974,14 @@
         <f>8*P7-M7-F7</f>
         <v>339.85800000000006</v>
       </c>
-      <c r="R7" s="48"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="25">
         <v>79.036744186046533</v>
       </c>
       <c r="T7" s="25">
         <v>130.41062790697677</v>
       </c>
-      <c r="U7" s="49">
+      <c r="U7" s="48">
         <f t="shared" ref="U7:U70" si="10">Q7-S7-T7</f>
         <v>130.41062790697677</v>
       </c>
@@ -10063,14 +10066,14 @@
         <f>9*P8-M8-F8</f>
         <v>624.29799999999989</v>
       </c>
-      <c r="R8" s="48"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="25">
         <v>145.18558139534881</v>
       </c>
       <c r="T8" s="25">
         <v>239.55620930232556</v>
       </c>
-      <c r="U8" s="49">
+      <c r="U8" s="48">
         <f t="shared" si="10"/>
         <v>239.55620930232556</v>
       </c>
@@ -10159,14 +10162,14 @@
         <f>12*P9-M9-F9</f>
         <v>128</v>
       </c>
-      <c r="R9" s="48"/>
+      <c r="R9" s="47"/>
       <c r="S9" s="25">
         <v>29.767441860465116</v>
       </c>
       <c r="T9" s="25">
         <v>49.116279069767444</v>
       </c>
-      <c r="U9" s="49">
+      <c r="U9" s="48">
         <f t="shared" si="10"/>
         <v>49.116279069767444</v>
       </c>
@@ -10255,14 +10258,14 @@
         <f>9*P10-M10-F10</f>
         <v>656</v>
       </c>
-      <c r="R10" s="48"/>
+      <c r="R10" s="47"/>
       <c r="S10" s="25">
         <v>152.55813953488374</v>
       </c>
       <c r="T10" s="25">
         <v>251.72093023255815</v>
       </c>
-      <c r="U10" s="49">
+      <c r="U10" s="48">
         <f t="shared" si="10"/>
         <v>251.72093023255815</v>
       </c>
@@ -10347,14 +10350,14 @@
         <f>10*P11-M11-F11</f>
         <v>1025</v>
       </c>
-      <c r="R11" s="48"/>
+      <c r="R11" s="47"/>
       <c r="S11" s="25">
         <v>238.37209302325581</v>
       </c>
       <c r="T11" s="25">
         <v>393.31395348837208</v>
       </c>
-      <c r="U11" s="49">
+      <c r="U11" s="48">
         <v>340</v>
       </c>
       <c r="V11" s="38"/>
@@ -10429,14 +10432,14 @@
         <v>0</v>
       </c>
       <c r="Q12" s="37"/>
-      <c r="R12" s="48"/>
+      <c r="R12" s="47"/>
       <c r="S12" s="25">
         <v>0</v>
       </c>
       <c r="T12" s="25">
         <v>0</v>
       </c>
-      <c r="U12" s="49">
+      <c r="U12" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -10518,14 +10521,14 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="Q13" s="37"/>
-      <c r="R13" s="48"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="25">
         <v>0</v>
       </c>
       <c r="T13" s="25">
         <v>0</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -10612,14 +10615,14 @@
         <f>12*P14-M14-F14</f>
         <v>6.6666666666666572</v>
       </c>
-      <c r="R14" s="48"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="25">
         <v>0</v>
       </c>
       <c r="T14" s="25">
         <v>7</v>
       </c>
-      <c r="U14" s="49">
+      <c r="U14" s="48">
         <f t="shared" si="10"/>
         <v>-0.33333333333334281</v>
       </c>
@@ -10693,14 +10696,14 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="Q15" s="37"/>
-      <c r="R15" s="48"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="25">
         <v>0</v>
       </c>
       <c r="T15" s="25">
         <v>0</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -10789,14 +10792,14 @@
         <f>12*P16-M16-F16</f>
         <v>37.666666666666664</v>
       </c>
-      <c r="R16" s="48"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="25">
         <v>0</v>
       </c>
       <c r="T16" s="25">
         <v>18.833333333333332</v>
       </c>
-      <c r="U16" s="49">
+      <c r="U16" s="48">
         <f t="shared" si="10"/>
         <v>18.833333333333332</v>
       </c>
@@ -10883,14 +10886,14 @@
         <f>9*P17-M17-F17</f>
         <v>65.666666666666657</v>
       </c>
-      <c r="R17" s="48"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="25">
         <v>15.271317829457363</v>
       </c>
       <c r="T17" s="25">
         <v>25.197674418604649</v>
       </c>
-      <c r="U17" s="49">
+      <c r="U17" s="48">
         <f t="shared" si="10"/>
         <v>25.197674418604649</v>
       </c>
@@ -10970,14 +10973,14 @@
         <v>2.08</v>
       </c>
       <c r="Q18" s="37"/>
-      <c r="R18" s="48"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="25">
         <v>0</v>
       </c>
       <c r="T18" s="25">
         <v>0</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11053,14 +11056,14 @@
         <v>0</v>
       </c>
       <c r="Q19" s="37"/>
-      <c r="R19" s="48"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="25">
         <v>0</v>
       </c>
       <c r="T19" s="25">
         <v>0</v>
       </c>
-      <c r="U19" s="49">
+      <c r="U19" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11146,14 +11149,14 @@
         <v>22</v>
       </c>
       <c r="Q20" s="37"/>
-      <c r="R20" s="48"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="25">
         <v>0</v>
       </c>
       <c r="T20" s="25">
         <v>0</v>
       </c>
-      <c r="U20" s="49">
+      <c r="U20" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11227,14 +11230,14 @@
         <v>0</v>
       </c>
       <c r="Q21" s="37"/>
-      <c r="R21" s="48"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="25">
         <v>0</v>
       </c>
       <c r="T21" s="25">
         <v>0</v>
       </c>
-      <c r="U21" s="49">
+      <c r="U21" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11316,14 +11319,14 @@
         <v>3</v>
       </c>
       <c r="Q22" s="37"/>
-      <c r="R22" s="48"/>
+      <c r="R22" s="47"/>
       <c r="S22" s="25">
         <v>0</v>
       </c>
       <c r="T22" s="25">
         <v>0</v>
       </c>
-      <c r="U22" s="49">
+      <c r="U22" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11411,14 +11414,14 @@
         <f>11*P23-M23-F23</f>
         <v>14</v>
       </c>
-      <c r="R23" s="48"/>
+      <c r="R23" s="47"/>
       <c r="S23" s="25">
         <v>0</v>
       </c>
       <c r="T23" s="25">
         <v>7</v>
       </c>
-      <c r="U23" s="49">
+      <c r="U23" s="48">
         <v>5</v>
       </c>
       <c r="V23" s="38"/>
@@ -11493,14 +11496,14 @@
         <v>0</v>
       </c>
       <c r="Q24" s="37"/>
-      <c r="R24" s="48"/>
+      <c r="R24" s="47"/>
       <c r="S24" s="25">
         <v>0</v>
       </c>
       <c r="T24" s="25">
         <v>0</v>
       </c>
-      <c r="U24" s="49">
+      <c r="U24" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11572,14 +11575,14 @@
         <v>0</v>
       </c>
       <c r="Q25" s="37"/>
-      <c r="R25" s="48"/>
+      <c r="R25" s="47"/>
       <c r="S25" s="25">
         <v>0</v>
       </c>
       <c r="T25" s="25">
         <v>0</v>
       </c>
-      <c r="U25" s="49">
+      <c r="U25" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11667,14 +11670,14 @@
       <c r="Q26" s="37">
         <v>1600</v>
       </c>
-      <c r="R26" s="48"/>
+      <c r="R26" s="47"/>
       <c r="S26" s="25">
         <v>456.8693798449612</v>
       </c>
       <c r="T26" s="25">
         <v>571.56531007751937</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U26" s="48">
         <f t="shared" si="10"/>
         <v>571.56531007751937</v>
       </c>
@@ -11762,14 +11765,14 @@
       <c r="Q27" s="37">
         <v>8000</v>
       </c>
-      <c r="R27" s="48"/>
+      <c r="R27" s="47"/>
       <c r="S27" s="25">
         <v>1832.2035658914731</v>
       </c>
       <c r="T27" s="25">
         <v>3083.8982170542636</v>
       </c>
-      <c r="U27" s="53">
+      <c r="U27" s="52">
         <v>3050</v>
       </c>
       <c r="V27" s="38"/>
@@ -11854,14 +11857,14 @@
         <v>12.927666666666667</v>
       </c>
       <c r="Q28" s="37"/>
-      <c r="R28" s="48"/>
+      <c r="R28" s="47"/>
       <c r="S28" s="25">
         <v>0</v>
       </c>
       <c r="T28" s="25">
         <v>0</v>
       </c>
-      <c r="U28" s="49">
+      <c r="U28" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11949,14 +11952,14 @@
       <c r="Q29" s="37">
         <v>2200</v>
       </c>
-      <c r="R29" s="48"/>
+      <c r="R29" s="47"/>
       <c r="S29" s="25">
         <v>580.80558139534901</v>
       </c>
       <c r="T29" s="25">
         <v>809.5972093023255</v>
       </c>
-      <c r="U29" s="49">
+      <c r="U29" s="48">
         <f t="shared" si="10"/>
         <v>809.5972093023255</v>
       </c>
@@ -12030,14 +12033,14 @@
         <v>0</v>
       </c>
       <c r="Q30" s="37"/>
-      <c r="R30" s="48"/>
+      <c r="R30" s="47"/>
       <c r="S30" s="25">
         <v>0</v>
       </c>
       <c r="T30" s="25">
         <v>0</v>
       </c>
-      <c r="U30" s="49">
+      <c r="U30" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -12125,7 +12128,7 @@
       <c r="Q31" s="37">
         <v>9600</v>
       </c>
-      <c r="R31" s="48">
+      <c r="R31" s="47">
         <v>1300</v>
       </c>
       <c r="S31" s="25">
@@ -12134,7 +12137,7 @@
       <c r="T31" s="25">
         <v>3300</v>
       </c>
-      <c r="U31" s="53">
+      <c r="U31" s="52">
         <v>3200</v>
       </c>
       <c r="V31" s="38"/>
@@ -12218,14 +12221,14 @@
         <f>10*P32-M32-F32</f>
         <v>371.7233333333333</v>
       </c>
-      <c r="R32" s="48"/>
+      <c r="R32" s="47"/>
       <c r="S32" s="25">
         <v>86.447286821705418</v>
       </c>
       <c r="T32" s="25">
         <v>142.63802325581395</v>
       </c>
-      <c r="U32" s="49">
+      <c r="U32" s="48">
         <v>100</v>
       </c>
       <c r="V32" s="38"/>
@@ -12312,14 +12315,14 @@
       <c r="Q33" s="37">
         <v>1600</v>
       </c>
-      <c r="R33" s="48"/>
+      <c r="R33" s="47"/>
       <c r="S33" s="25">
         <v>446.80325581395351</v>
       </c>
       <c r="T33" s="25">
         <v>576.59837209302327</v>
       </c>
-      <c r="U33" s="49">
+      <c r="U33" s="48">
         <v>500</v>
       </c>
       <c r="V33" s="38"/>
@@ -12406,14 +12409,14 @@
       <c r="Q34" s="37">
         <v>9000</v>
       </c>
-      <c r="R34" s="48"/>
+      <c r="R34" s="47"/>
       <c r="S34" s="25">
         <v>2149.2101550387601</v>
       </c>
       <c r="T34" s="25">
         <v>3425.3949224806202</v>
       </c>
-      <c r="U34" s="53">
+      <c r="U34" s="52">
         <v>3350</v>
       </c>
       <c r="V34" s="38"/>
@@ -12496,14 +12499,14 @@
       <c r="Q35" s="37">
         <v>3200</v>
       </c>
-      <c r="R35" s="48"/>
+      <c r="R35" s="47"/>
       <c r="S35" s="25">
         <v>797.20348837209269</v>
       </c>
       <c r="T35" s="25">
         <v>1201.3982558139537</v>
       </c>
-      <c r="U35" s="53">
+      <c r="U35" s="52">
         <v>1000</v>
       </c>
       <c r="V35" s="38"/>
@@ -12587,14 +12590,14 @@
         <f>9*P36-M36-F36</f>
         <v>815.34499999999991</v>
       </c>
-      <c r="R36" s="48"/>
+      <c r="R36" s="47"/>
       <c r="S36" s="25">
         <v>189.61511627906975</v>
       </c>
       <c r="T36" s="25">
         <v>312.86494186046508</v>
       </c>
-      <c r="U36" s="49">
+      <c r="U36" s="48">
         <v>200</v>
       </c>
       <c r="V36" s="38"/>
@@ -12678,14 +12681,14 @@
         <f>10*P37-M37-F37</f>
         <v>1161.5360000000001</v>
       </c>
-      <c r="R37" s="48"/>
+      <c r="R37" s="47"/>
       <c r="S37" s="25">
         <v>270.12465116279071</v>
       </c>
       <c r="T37" s="25">
         <v>445.70567441860464</v>
       </c>
-      <c r="U37" s="49">
+      <c r="U37" s="48">
         <v>300</v>
       </c>
       <c r="V37" s="38"/>
@@ -12760,14 +12763,14 @@
       <c r="Q38" s="36">
         <v>25</v>
       </c>
-      <c r="R38" s="48"/>
+      <c r="R38" s="47"/>
       <c r="S38" s="25">
         <v>0</v>
       </c>
       <c r="T38" s="25">
         <v>12.5</v>
       </c>
-      <c r="U38" s="49">
+      <c r="U38" s="48">
         <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
@@ -12855,14 +12858,14 @@
       <c r="Q39" s="37">
         <v>1500</v>
       </c>
-      <c r="R39" s="48"/>
+      <c r="R39" s="47"/>
       <c r="S39" s="25">
         <v>404.14031007751942</v>
       </c>
       <c r="T39" s="25">
         <v>547.92984496124029</v>
       </c>
-      <c r="U39" s="49">
+      <c r="U39" s="48">
         <v>500</v>
       </c>
       <c r="V39" s="38"/>
@@ -12945,14 +12948,14 @@
       <c r="Q40" s="36">
         <v>10</v>
       </c>
-      <c r="R40" s="48"/>
+      <c r="R40" s="47"/>
       <c r="S40" s="25">
         <v>0</v>
       </c>
       <c r="T40" s="25">
         <v>5</v>
       </c>
-      <c r="U40" s="49">
+      <c r="U40" s="48">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -13024,14 +13027,14 @@
         <v>0</v>
       </c>
       <c r="Q41" s="37"/>
-      <c r="R41" s="48"/>
+      <c r="R41" s="47"/>
       <c r="S41" s="25">
         <v>0</v>
       </c>
       <c r="T41" s="25">
         <v>0</v>
       </c>
-      <c r="U41" s="49">
+      <c r="U41" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13120,14 +13123,14 @@
         <f>12*P42-M42-F42</f>
         <v>107.36900000000021</v>
       </c>
-      <c r="R42" s="48"/>
+      <c r="R42" s="47"/>
       <c r="S42" s="25">
         <v>24.969534883720982</v>
       </c>
       <c r="T42" s="25">
         <v>41.199732558139615</v>
       </c>
-      <c r="U42" s="49">
+      <c r="U42" s="48">
         <v>20</v>
       </c>
       <c r="V42" s="38"/>
@@ -13200,14 +13203,14 @@
         <v>0</v>
       </c>
       <c r="Q43" s="37"/>
-      <c r="R43" s="48"/>
+      <c r="R43" s="47"/>
       <c r="S43" s="25">
         <v>0</v>
       </c>
       <c r="T43" s="25">
         <v>0</v>
       </c>
-      <c r="U43" s="49">
+      <c r="U43" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13295,14 +13298,14 @@
       <c r="Q44" s="37">
         <v>800</v>
       </c>
-      <c r="R44" s="48"/>
+      <c r="R44" s="47"/>
       <c r="S44" s="25">
         <v>203.22906976744187</v>
       </c>
       <c r="T44" s="25">
         <v>298.38546511627908</v>
       </c>
-      <c r="U44" s="49">
+      <c r="U44" s="48">
         <v>250</v>
       </c>
       <c r="V44" s="38"/>
@@ -13381,14 +13384,14 @@
         <v>7.7719999999999994</v>
       </c>
       <c r="Q45" s="37"/>
-      <c r="R45" s="48"/>
+      <c r="R45" s="47"/>
       <c r="S45" s="25">
         <v>0</v>
       </c>
       <c r="T45" s="25">
         <v>0</v>
       </c>
-      <c r="U45" s="49">
+      <c r="U45" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13466,14 +13469,14 @@
         <v>51.704000000000001</v>
       </c>
       <c r="Q46" s="37"/>
-      <c r="R46" s="48"/>
+      <c r="R46" s="47"/>
       <c r="S46" s="25">
         <v>0</v>
       </c>
       <c r="T46" s="25">
         <v>0</v>
       </c>
-      <c r="U46" s="49">
+      <c r="U46" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13559,14 +13562,14 @@
       <c r="Q47" s="37">
         <v>1300</v>
       </c>
-      <c r="R47" s="48"/>
+      <c r="R47" s="47"/>
       <c r="S47" s="25">
         <v>374.55457364341083</v>
       </c>
       <c r="T47" s="25">
         <v>462.72271317829461</v>
       </c>
-      <c r="U47" s="49">
+      <c r="U47" s="48">
         <f t="shared" si="10"/>
         <v>462.72271317829461</v>
       </c>
@@ -13650,14 +13653,14 @@
       <c r="Q48" s="36">
         <v>5</v>
       </c>
-      <c r="R48" s="47"/>
+      <c r="R48" s="46"/>
       <c r="S48" s="25">
         <v>0</v>
       </c>
       <c r="T48" s="25">
         <v>2.5</v>
       </c>
-      <c r="U48" s="49">
+      <c r="U48" s="48">
         <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
@@ -13729,14 +13732,14 @@
         <v>0</v>
       </c>
       <c r="Q49" s="37"/>
-      <c r="R49" s="48"/>
+      <c r="R49" s="47"/>
       <c r="S49" s="25">
         <v>0</v>
       </c>
       <c r="T49" s="25">
         <v>0</v>
       </c>
-      <c r="U49" s="49">
+      <c r="U49" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13821,14 +13824,14 @@
         <f t="shared" ref="Q50:Q53" si="17">12*P50-M50-F50</f>
         <v>12.207000000000001</v>
       </c>
-      <c r="R50" s="48"/>
+      <c r="R50" s="47"/>
       <c r="S50" s="25">
         <v>0</v>
       </c>
       <c r="T50" s="25">
         <v>6.1035000000000004</v>
       </c>
-      <c r="U50" s="49">
+      <c r="U50" s="48">
         <f t="shared" si="10"/>
         <v>6.1035000000000004</v>
       </c>
@@ -13917,14 +13920,14 @@
         <f t="shared" si="17"/>
         <v>64.144999999999996</v>
       </c>
-      <c r="R51" s="48"/>
+      <c r="R51" s="47"/>
       <c r="S51" s="25">
         <v>14.917441860465116</v>
       </c>
       <c r="T51" s="25">
         <v>24.613779069767439</v>
       </c>
-      <c r="U51" s="49">
+      <c r="U51" s="48">
         <v>10</v>
       </c>
       <c r="V51" s="38"/>
@@ -14012,14 +14015,14 @@
         <f t="shared" si="17"/>
         <v>121.34499999999997</v>
       </c>
-      <c r="R52" s="48"/>
+      <c r="R52" s="47"/>
       <c r="S52" s="25">
         <v>28.219767441860458</v>
       </c>
       <c r="T52" s="25">
         <v>46.562616279069758</v>
       </c>
-      <c r="U52" s="49">
+      <c r="U52" s="48">
         <v>25</v>
       </c>
       <c r="V52" s="38"/>
@@ -14107,14 +14110,14 @@
         <f t="shared" si="17"/>
         <v>63</v>
       </c>
-      <c r="R53" s="48"/>
+      <c r="R53" s="47"/>
       <c r="S53" s="25">
         <v>14.651162790697676</v>
       </c>
       <c r="T53" s="25">
         <v>24.174418604651162</v>
       </c>
-      <c r="U53" s="49">
+      <c r="U53" s="48">
         <f t="shared" si="10"/>
         <v>24.174418604651162</v>
       </c>
@@ -14198,14 +14201,14 @@
       <c r="Q54" s="37">
         <v>1100</v>
       </c>
-      <c r="R54" s="48"/>
+      <c r="R54" s="47"/>
       <c r="S54" s="25">
         <v>317.28682170542641</v>
       </c>
       <c r="T54" s="25">
         <v>391.3565891472868</v>
       </c>
-      <c r="U54" s="49">
+      <c r="U54" s="48">
         <f t="shared" si="10"/>
         <v>391.3565891472868</v>
       </c>
@@ -14283,14 +14286,14 @@
         <v>0</v>
       </c>
       <c r="Q55" s="37"/>
-      <c r="R55" s="48"/>
+      <c r="R55" s="47"/>
       <c r="S55" s="25">
         <v>0</v>
       </c>
       <c r="T55" s="25">
         <v>0</v>
       </c>
-      <c r="U55" s="49">
+      <c r="U55" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -14372,14 +14375,14 @@
       <c r="Q56" s="37">
         <v>600</v>
       </c>
-      <c r="R56" s="48"/>
+      <c r="R56" s="47"/>
       <c r="S56" s="25">
         <v>162.56310077519382</v>
       </c>
       <c r="T56" s="25">
         <v>218.71844961240311</v>
       </c>
-      <c r="U56" s="49">
+      <c r="U56" s="48">
         <f t="shared" si="10"/>
         <v>218.71844961240311</v>
       </c>
@@ -14464,14 +14467,14 @@
         <f>11*P57-M57-F57</f>
         <v>311.66666666666669</v>
       </c>
-      <c r="R57" s="48"/>
+      <c r="R57" s="47"/>
       <c r="S57" s="25">
         <v>72.480620155038764</v>
       </c>
       <c r="T57" s="25">
         <v>119.59302325581396</v>
       </c>
-      <c r="U57" s="49">
+      <c r="U57" s="48">
         <f t="shared" si="10"/>
         <v>119.59302325581396</v>
       </c>
@@ -14543,14 +14546,14 @@
         <v>0</v>
       </c>
       <c r="Q58" s="37"/>
-      <c r="R58" s="48"/>
+      <c r="R58" s="47"/>
       <c r="S58" s="25">
         <v>0</v>
       </c>
       <c r="T58" s="25">
         <v>0</v>
       </c>
-      <c r="U58" s="49">
+      <c r="U58" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -14635,14 +14638,14 @@
         <f>10*P59-M59-F59</f>
         <v>813.33333333333326</v>
       </c>
-      <c r="R59" s="48"/>
+      <c r="R59" s="47"/>
       <c r="S59" s="25">
         <v>189.14728682170542</v>
       </c>
       <c r="T59" s="25">
         <v>312.09302325581393</v>
       </c>
-      <c r="U59" s="49">
+      <c r="U59" s="48">
         <f t="shared" si="10"/>
         <v>312.09302325581393</v>
       </c>
@@ -14730,14 +14733,14 @@
       <c r="Q60" s="37">
         <v>1100</v>
       </c>
-      <c r="R60" s="48"/>
+      <c r="R60" s="47"/>
       <c r="S60" s="25">
         <v>317.2093023255814</v>
       </c>
       <c r="T60" s="25">
         <v>391.39534883720933</v>
       </c>
-      <c r="U60" s="49">
+      <c r="U60" s="48">
         <f t="shared" si="10"/>
         <v>391.39534883720933</v>
       </c>
@@ -14822,14 +14825,14 @@
         <f t="shared" ref="Q61" si="18">8*P61-M61-F61</f>
         <v>176</v>
       </c>
-      <c r="R61" s="48"/>
+      <c r="R61" s="47"/>
       <c r="S61" s="25">
         <v>40.930232558139537</v>
       </c>
       <c r="T61" s="25">
         <v>67.534883720930225</v>
       </c>
-      <c r="U61" s="49">
+      <c r="U61" s="48">
         <f t="shared" si="10"/>
         <v>67.534883720930225</v>
       </c>
@@ -14914,14 +14917,14 @@
         <f>11*P62-M62-F62</f>
         <v>252.97666666666663</v>
       </c>
-      <c r="R62" s="48"/>
+      <c r="R62" s="47"/>
       <c r="S62" s="25">
         <v>58.831782945736428</v>
       </c>
       <c r="T62" s="25">
         <v>97.072441860465105</v>
       </c>
-      <c r="U62" s="49">
+      <c r="U62" s="48">
         <v>60</v>
       </c>
       <c r="V62" s="38"/>
@@ -15006,14 +15009,14 @@
         <v>14.186333333333332</v>
       </c>
       <c r="Q63" s="37"/>
-      <c r="R63" s="48"/>
+      <c r="R63" s="47"/>
       <c r="S63" s="25">
         <v>0</v>
       </c>
       <c r="T63" s="25">
         <v>0</v>
       </c>
-      <c r="U63" s="49">
+      <c r="U63" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -15097,14 +15100,14 @@
       <c r="Q64" s="37">
         <v>450</v>
       </c>
-      <c r="R64" s="48"/>
+      <c r="R64" s="47"/>
       <c r="S64" s="25">
         <v>117.86116279069765</v>
       </c>
       <c r="T64" s="25">
         <v>166.06941860465116</v>
       </c>
-      <c r="U64" s="49">
+      <c r="U64" s="48">
         <f t="shared" si="10"/>
         <v>166.06941860465116</v>
       </c>
@@ -15176,14 +15179,14 @@
         <v>0</v>
       </c>
       <c r="Q65" s="37"/>
-      <c r="R65" s="48"/>
+      <c r="R65" s="47"/>
       <c r="S65" s="25">
         <v>0</v>
       </c>
       <c r="T65" s="25">
         <v>0</v>
       </c>
-      <c r="U65" s="49">
+      <c r="U65" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -15270,14 +15273,14 @@
         <f>8*P66-M66-F66</f>
         <v>480.60366666666664</v>
       </c>
-      <c r="R66" s="48"/>
+      <c r="R66" s="47"/>
       <c r="S66" s="25">
         <v>111.76829457364342</v>
       </c>
       <c r="T66" s="25">
         <v>184.41768604651162</v>
       </c>
-      <c r="U66" s="49">
+      <c r="U66" s="48">
         <v>110</v>
       </c>
       <c r="V66" s="38"/>
@@ -15364,14 +15367,14 @@
         <f>12*P67-M67-F67</f>
         <v>135.66666666666669</v>
       </c>
-      <c r="R67" s="48"/>
+      <c r="R67" s="47"/>
       <c r="S67" s="25">
         <v>31.550387596899231</v>
       </c>
       <c r="T67" s="25">
         <v>52.058139534883729</v>
       </c>
-      <c r="U67" s="49">
+      <c r="U67" s="48">
         <v>20</v>
       </c>
       <c r="V67" s="38"/>
@@ -15454,14 +15457,14 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="Q68" s="37"/>
-      <c r="R68" s="48"/>
+      <c r="R68" s="47"/>
       <c r="S68" s="25">
         <v>0</v>
       </c>
       <c r="T68" s="25">
         <v>0</v>
       </c>
-      <c r="U68" s="49">
+      <c r="U68" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -15543,14 +15546,14 @@
         <v>1</v>
       </c>
       <c r="Q69" s="37"/>
-      <c r="R69" s="48"/>
+      <c r="R69" s="47"/>
       <c r="S69" s="25">
         <v>0</v>
       </c>
       <c r="T69" s="25">
         <v>0</v>
       </c>
-      <c r="U69" s="49">
+      <c r="U69" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -15624,14 +15627,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="37"/>
-      <c r="R70" s="48"/>
+      <c r="R70" s="47"/>
       <c r="S70" s="25">
         <v>0</v>
       </c>
       <c r="T70" s="25">
         <v>0</v>
       </c>
-      <c r="U70" s="49">
+      <c r="U70" s="48">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -15716,14 +15719,14 @@
         <f>10*P71-M71-F71</f>
         <v>140.33333333333331</v>
       </c>
-      <c r="R71" s="48"/>
+      <c r="R71" s="47"/>
       <c r="S71" s="25">
         <v>32.63565891472868</v>
       </c>
       <c r="T71" s="25">
         <v>53.848837209302317</v>
       </c>
-      <c r="U71" s="49">
+      <c r="U71" s="48">
         <v>30</v>
       </c>
       <c r="V71" s="38"/>
@@ -15811,14 +15814,14 @@
         <f>11*P72-M72-F72</f>
         <v>22.931999999999995</v>
       </c>
-      <c r="R72" s="48"/>
+      <c r="R72" s="47"/>
       <c r="S72" s="25">
         <v>0</v>
       </c>
       <c r="T72" s="25">
         <v>11.465999999999998</v>
       </c>
-      <c r="U72" s="49">
+      <c r="U72" s="48">
         <v>8</v>
       </c>
       <c r="V72" s="38"/>
@@ -15904,14 +15907,14 @@
         <f>12*P73-M73-F73</f>
         <v>14</v>
       </c>
-      <c r="R73" s="48"/>
+      <c r="R73" s="47"/>
       <c r="S73" s="25">
         <v>0</v>
       </c>
       <c r="T73" s="25">
         <v>7</v>
       </c>
-      <c r="U73" s="49">
+      <c r="U73" s="48">
         <v>5</v>
       </c>
       <c r="V73" s="38"/>
@@ -15994,15 +15997,15 @@
       <c r="Q74" s="36">
         <v>10</v>
       </c>
-      <c r="R74" s="47"/>
+      <c r="R74" s="46"/>
       <c r="S74" s="25">
         <v>0</v>
       </c>
       <c r="T74" s="25">
         <v>5</v>
       </c>
-      <c r="U74" s="49">
-        <f t="shared" ref="U71:U105" si="24">Q74-S74-T74</f>
+      <c r="U74" s="48">
+        <f t="shared" ref="U74:U105" si="24">Q74-S74-T74</f>
         <v>5</v>
       </c>
       <c r="V74" s="38"/>
@@ -16083,14 +16086,14 @@
         <v>0</v>
       </c>
       <c r="Q75" s="37"/>
-      <c r="R75" s="48"/>
+      <c r="R75" s="47"/>
       <c r="S75" s="25">
         <v>0</v>
       </c>
       <c r="T75" s="25">
         <v>0</v>
       </c>
-      <c r="U75" s="49">
+      <c r="U75" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -16175,14 +16178,14 @@
         <f>7*P76-M76-F76</f>
         <v>133.16833333333335</v>
       </c>
-      <c r="R76" s="48"/>
+      <c r="R76" s="47"/>
       <c r="S76" s="25">
         <v>30.969379844961246</v>
       </c>
       <c r="T76" s="25">
         <v>51.099476744186049</v>
       </c>
-      <c r="U76" s="49">
+      <c r="U76" s="48">
         <v>30</v>
       </c>
       <c r="V76" s="38"/>
@@ -16270,14 +16273,14 @@
         <f>11*P77-M77-F77</f>
         <v>72.873333333333321</v>
       </c>
-      <c r="R77" s="48"/>
+      <c r="R77" s="47"/>
       <c r="S77" s="25">
         <v>16.947286821705426</v>
       </c>
       <c r="T77" s="25">
         <v>27.963023255813948</v>
       </c>
-      <c r="U77" s="49">
+      <c r="U77" s="48">
         <v>20</v>
       </c>
       <c r="V77" s="38"/>
@@ -16360,14 +16363,14 @@
       <c r="Q78" s="37">
         <v>850</v>
       </c>
-      <c r="R78" s="48"/>
+      <c r="R78" s="47"/>
       <c r="S78" s="25">
         <v>217.2093023255814</v>
       </c>
       <c r="T78" s="25">
         <v>316.39534883720933</v>
       </c>
-      <c r="U78" s="49">
+      <c r="U78" s="48">
         <v>300</v>
       </c>
       <c r="V78" s="38"/>
@@ -16455,14 +16458,14 @@
         <f>8*P79-M79-F79</f>
         <v>461</v>
       </c>
-      <c r="R79" s="48"/>
+      <c r="R79" s="47"/>
       <c r="S79" s="25">
         <v>107.2093023255814</v>
       </c>
       <c r="T79" s="25">
         <v>176.8953488372093</v>
       </c>
-      <c r="U79" s="49">
+      <c r="U79" s="48">
         <v>100</v>
       </c>
       <c r="V79" s="38"/>
@@ -16541,14 +16544,14 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="Q80" s="37"/>
-      <c r="R80" s="48"/>
+      <c r="R80" s="47"/>
       <c r="S80" s="25">
         <v>0</v>
       </c>
       <c r="T80" s="25">
         <v>0</v>
       </c>
-      <c r="U80" s="49">
+      <c r="U80" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -16625,14 +16628,14 @@
         <v>0</v>
       </c>
       <c r="Q81" s="37"/>
-      <c r="R81" s="48"/>
+      <c r="R81" s="47"/>
       <c r="S81" s="25">
         <v>0</v>
       </c>
       <c r="T81" s="25">
         <v>0</v>
       </c>
-      <c r="U81" s="49">
+      <c r="U81" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -16712,14 +16715,14 @@
         <v>4.333333333333333</v>
       </c>
       <c r="Q82" s="37"/>
-      <c r="R82" s="48"/>
+      <c r="R82" s="47"/>
       <c r="S82" s="25">
         <v>0</v>
       </c>
       <c r="T82" s="25">
         <v>0</v>
       </c>
-      <c r="U82" s="49">
+      <c r="U82" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -16799,14 +16802,14 @@
       <c r="Q83" s="36">
         <v>10</v>
       </c>
-      <c r="R83" s="47"/>
+      <c r="R83" s="46"/>
       <c r="S83" s="25">
         <v>0</v>
       </c>
       <c r="T83" s="25">
         <v>5</v>
       </c>
-      <c r="U83" s="49">
+      <c r="U83" s="48">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
@@ -16895,14 +16898,14 @@
         <f t="shared" ref="Q84:Q85" si="28">12*P84-M84-F84</f>
         <v>153.53100000000001</v>
       </c>
-      <c r="R84" s="48"/>
+      <c r="R84" s="47"/>
       <c r="S84" s="25">
         <v>35.704883720930233</v>
       </c>
       <c r="T84" s="25">
         <v>58.913058139534883</v>
       </c>
-      <c r="U84" s="49">
+      <c r="U84" s="48">
         <v>40</v>
       </c>
       <c r="V84" s="38"/>
@@ -16990,14 +16993,14 @@
         <f t="shared" si="28"/>
         <v>55.141999999999996</v>
       </c>
-      <c r="R85" s="48"/>
+      <c r="R85" s="47"/>
       <c r="S85" s="25">
         <v>0</v>
       </c>
       <c r="T85" s="25">
         <v>27.570999999999998</v>
       </c>
-      <c r="U85" s="49">
+      <c r="U85" s="48">
         <f t="shared" si="24"/>
         <v>27.570999999999998</v>
       </c>
@@ -17069,14 +17072,14 @@
         <v>0</v>
       </c>
       <c r="Q86" s="37"/>
-      <c r="R86" s="48"/>
+      <c r="R86" s="47"/>
       <c r="S86" s="25">
         <v>0</v>
       </c>
       <c r="T86" s="25">
         <v>0</v>
       </c>
-      <c r="U86" s="49">
+      <c r="U86" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17148,14 +17151,14 @@
         <v>0</v>
       </c>
       <c r="Q87" s="37"/>
-      <c r="R87" s="48"/>
+      <c r="R87" s="47"/>
       <c r="S87" s="25">
         <v>0</v>
       </c>
       <c r="T87" s="25">
         <v>0</v>
       </c>
-      <c r="U87" s="49">
+      <c r="U87" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17237,14 +17240,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="Q88" s="37"/>
-      <c r="R88" s="48"/>
+      <c r="R88" s="47"/>
       <c r="S88" s="25">
         <v>0</v>
       </c>
       <c r="T88" s="25">
         <v>0</v>
       </c>
-      <c r="U88" s="49">
+      <c r="U88" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17330,14 +17333,14 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="Q89" s="37"/>
-      <c r="R89" s="48"/>
+      <c r="R89" s="47"/>
       <c r="S89" s="25">
         <v>0</v>
       </c>
       <c r="T89" s="25">
         <v>0</v>
       </c>
-      <c r="U89" s="49">
+      <c r="U89" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17411,14 +17414,14 @@
         <v>0</v>
       </c>
       <c r="Q90" s="37"/>
-      <c r="R90" s="48"/>
+      <c r="R90" s="47"/>
       <c r="S90" s="25">
         <v>0</v>
       </c>
       <c r="T90" s="25">
         <v>0</v>
       </c>
-      <c r="U90" s="49">
+      <c r="U90" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17491,14 +17494,14 @@
         <v>0</v>
       </c>
       <c r="Q91" s="37"/>
-      <c r="R91" s="48"/>
+      <c r="R91" s="47"/>
       <c r="S91" s="25">
         <v>0</v>
       </c>
       <c r="T91" s="25">
         <v>0</v>
       </c>
-      <c r="U91" s="49">
+      <c r="U91" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17573,14 +17576,14 @@
         <v>0</v>
       </c>
       <c r="Q92" s="37"/>
-      <c r="R92" s="48"/>
+      <c r="R92" s="47"/>
       <c r="S92" s="25">
         <v>0</v>
       </c>
       <c r="T92" s="25">
         <v>0</v>
       </c>
-      <c r="U92" s="49">
+      <c r="U92" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17652,14 +17655,14 @@
         <v>0</v>
       </c>
       <c r="Q93" s="37"/>
-      <c r="R93" s="48"/>
+      <c r="R93" s="47"/>
       <c r="S93" s="25">
         <v>0</v>
       </c>
       <c r="T93" s="25">
         <v>0</v>
       </c>
-      <c r="U93" s="49">
+      <c r="U93" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17744,14 +17747,14 @@
         <f>9*P94-M94-F94</f>
         <v>44</v>
       </c>
-      <c r="R94" s="48"/>
+      <c r="R94" s="47"/>
       <c r="S94" s="25">
         <v>0</v>
       </c>
       <c r="T94" s="25">
         <v>22</v>
       </c>
-      <c r="U94" s="49">
+      <c r="U94" s="48">
         <v>15</v>
       </c>
       <c r="V94" s="38"/>
@@ -17831,14 +17834,14 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="Q95" s="37"/>
-      <c r="R95" s="48"/>
+      <c r="R95" s="47"/>
       <c r="S95" s="25">
         <v>0</v>
       </c>
       <c r="T95" s="25">
         <v>0</v>
       </c>
-      <c r="U95" s="49">
+      <c r="U95" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -17919,14 +17922,14 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="Q96" s="37"/>
-      <c r="R96" s="48"/>
+      <c r="R96" s="47"/>
       <c r="S96" s="25">
         <v>0</v>
       </c>
       <c r="T96" s="25">
         <v>0</v>
       </c>
-      <c r="U96" s="49">
+      <c r="U96" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18007,14 +18010,14 @@
         <f>7*P97-M97-F97</f>
         <v>21.370000000000005</v>
       </c>
-      <c r="R97" s="48"/>
+      <c r="R97" s="47"/>
       <c r="S97" s="25">
         <v>0</v>
       </c>
       <c r="T97" s="25">
         <v>10.685000000000002</v>
       </c>
-      <c r="U97" s="49">
+      <c r="U97" s="48">
         <v>10</v>
       </c>
       <c r="V97" s="38"/>
@@ -18092,14 +18095,14 @@
         <v>105.66666666666667</v>
       </c>
       <c r="Q98" s="37"/>
-      <c r="R98" s="48"/>
+      <c r="R98" s="47"/>
       <c r="S98" s="25">
         <v>0</v>
       </c>
       <c r="T98" s="25">
         <v>0</v>
       </c>
-      <c r="U98" s="49">
+      <c r="U98" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18178,14 +18181,14 @@
         <v>108.33333333333333</v>
       </c>
       <c r="Q99" s="37"/>
-      <c r="R99" s="48"/>
+      <c r="R99" s="47"/>
       <c r="S99" s="25">
         <v>0</v>
       </c>
       <c r="T99" s="25">
         <v>0</v>
       </c>
-      <c r="U99" s="49">
+      <c r="U99" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18264,14 +18267,14 @@
         <v>107</v>
       </c>
       <c r="Q100" s="37"/>
-      <c r="R100" s="48"/>
+      <c r="R100" s="47"/>
       <c r="S100" s="25">
         <v>0</v>
       </c>
       <c r="T100" s="25">
         <v>0</v>
       </c>
-      <c r="U100" s="49">
+      <c r="U100" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18343,14 +18346,14 @@
         <v>0</v>
       </c>
       <c r="Q101" s="37"/>
-      <c r="R101" s="48"/>
+      <c r="R101" s="47"/>
       <c r="S101" s="25">
         <v>0</v>
       </c>
       <c r="T101" s="25">
         <v>0</v>
       </c>
-      <c r="U101" s="49">
+      <c r="U101" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18422,14 +18425,14 @@
         <v>0</v>
       </c>
       <c r="Q102" s="37"/>
-      <c r="R102" s="48"/>
+      <c r="R102" s="47"/>
       <c r="S102" s="25">
         <v>0</v>
       </c>
       <c r="T102" s="25">
         <v>0</v>
       </c>
-      <c r="U102" s="49">
+      <c r="U102" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18501,14 +18504,14 @@
         <v>0</v>
       </c>
       <c r="Q103" s="37"/>
-      <c r="R103" s="48"/>
+      <c r="R103" s="47"/>
       <c r="S103" s="25">
         <v>0</v>
       </c>
       <c r="T103" s="25">
         <v>0</v>
       </c>
-      <c r="U103" s="49">
+      <c r="U103" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18580,14 +18583,14 @@
         <v>0</v>
       </c>
       <c r="Q104" s="37"/>
-      <c r="R104" s="48"/>
+      <c r="R104" s="47"/>
       <c r="S104" s="25">
         <v>0</v>
       </c>
       <c r="T104" s="25">
         <v>0</v>
       </c>
-      <c r="U104" s="49">
+      <c r="U104" s="48">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -18661,14 +18664,14 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="Q105" s="37"/>
-      <c r="R105" s="50"/>
-      <c r="S105" s="52">
-        <v>0</v>
-      </c>
-      <c r="T105" s="52">
-        <v>0</v>
-      </c>
-      <c r="U105" s="51">
+      <c r="R105" s="49"/>
+      <c r="S105" s="51">
+        <v>0</v>
+      </c>
+      <c r="T105" s="51">
+        <v>0</v>
+      </c>
+      <c r="U105" s="50">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
